--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/政府部门/资金来源.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/政府部门/资金来源.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,1443 +603,865 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.453851712</v>
+        <v>2261.5672945892</v>
       </c>
       <c r="C2" t="n">
-        <v>25.83</v>
+        <v>1043.6353675805</v>
       </c>
       <c r="D2" t="n">
-        <v>8.390000000000001</v>
+        <v>1604.27782605</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>12679.0605567613</v>
+        <v>61074.653001248</v>
       </c>
       <c r="I2" t="n">
-        <v>369.56752935639</v>
+        <v>2201.95668297773</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>14428.1223439933</v>
+        <v>80976.7203020856</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>84.17</v>
+        <v>2428.6760257363</v>
       </c>
       <c r="O2" t="n">
-        <v>7808.92446718097</v>
+        <v>36155.6891682637</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>-1347.3382833617</v>
+        <v>20759.8526708368</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>2118.8631</v>
+        <v>17680.81</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>11975.3053093033</v>
+        <v>52672.5909182424</v>
       </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>2644.9</v>
+        <v>20584.5011</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>20.6</v>
+        <v>1465.81033923956</v>
       </c>
       <c r="AE2" t="n">
-        <v>5115.216951712</v>
+        <v>40526.8783945892</v>
       </c>
       <c r="AF2" t="n">
-        <v>500.16752935639</v>
+        <v>7140.0784155341</v>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
-        <v>8.390000000000001</v>
+        <v>1604.27782605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>412.57590188</v>
+        <v>2284.502040512</v>
       </c>
       <c r="C3" t="n">
-        <v>19.19</v>
+        <v>1320.72</v>
       </c>
       <c r="D3" t="n">
-        <v>10.33</v>
+        <v>2425.629049992</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>14212.7805523695</v>
+        <v>74461.0965724227</v>
       </c>
       <c r="I3" t="n">
-        <v>378.890906437614</v>
+        <v>4135.38083969277</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>17191.7203528095</v>
+        <v>99761.8629486568</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>92.84</v>
+        <v>3075.524</v>
       </c>
       <c r="O3" t="n">
-        <v>9110.68372104467</v>
+        <v>40363.2514689288</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>-1173.81756432198</v>
+        <v>27048.3123763298</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3363.0008</v>
+        <v>22823.75</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>12968.1697732936</v>
+        <v>62270.8052059079</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
-        <v>3101.9</v>
+        <v>27217.5839</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
-        <v>263.12</v>
+        <v>2391.00746161272</v>
       </c>
       <c r="AE3" t="n">
-        <v>6877.47670188</v>
+        <v>52325.835940512</v>
       </c>
       <c r="AF3" t="n">
-        <v>754.040906437614</v>
+        <v>10922.6323013055</v>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>10.33</v>
+        <v>2425.629049992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.11284284</v>
+        <v>2777.29407677887</v>
       </c>
       <c r="C4" t="n">
-        <v>38.59</v>
+        <v>1878.4440156324</v>
       </c>
       <c r="D4" t="n">
-        <v>20.51</v>
+        <v>3006.18954807848</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>17198.5250581736</v>
+        <v>85003.2406333424</v>
       </c>
       <c r="I4" t="n">
-        <v>415.061399465804</v>
+        <v>6228.37871161149</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>20541.8800676736</v>
+        <v>114900.416669156</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>110.53</v>
+        <v>4411.210982584</v>
       </c>
       <c r="O4" t="n">
-        <v>11389.16</v>
+        <v>39051.9918480129</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>746.040074496865</v>
+        <v>29892.1104673694</v>
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3542.89</v>
+        <v>25818.1619120047</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>14761.7561</v>
+        <v>68866.0282853542</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
-        <v>4048.7</v>
+        <v>31411.0283</v>
       </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>618.9</v>
+        <v>2104.21689353033</v>
       </c>
       <c r="AE4" t="n">
-        <v>8079.70284284</v>
+        <v>60006.4842887836</v>
       </c>
       <c r="AF4" t="n">
-        <v>1183.0813994658</v>
+        <v>14622.2506033582</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>20.51</v>
+        <v>3006.18954807848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>539.58097398</v>
+        <v>3061.37737818093</v>
       </c>
       <c r="C5" t="n">
-        <v>80.66</v>
+        <v>1551.9709</v>
       </c>
       <c r="D5" t="n">
-        <v>37.28</v>
+        <v>3857.89863268166</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>18794.5955743233</v>
+        <v>89261.65593286919</v>
       </c>
       <c r="I5" t="n">
-        <v>562.899331669729</v>
+        <v>5633.75825121954</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>23042.1601795833</v>
+        <v>123086.24857504</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>126.15</v>
+        <v>5127.9177</v>
       </c>
       <c r="O5" t="n">
-        <v>12347.7</v>
+        <v>42559.6657587748</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1911.11857539582</v>
+        <v>29130.0908231862</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4195.8818</v>
+        <v>29030.3639</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>17516.1702</v>
+        <v>73536.4115246</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
-        <v>4882.9</v>
+        <v>35993.5842</v>
       </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>78.08</v>
+        <v>3463.50701981032</v>
       </c>
       <c r="AE5" t="n">
-        <v>9618.362773979999</v>
+        <v>68085.32547818089</v>
       </c>
       <c r="AF5" t="n">
-        <v>847.789331669729</v>
+        <v>15777.1538710299</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>37.28</v>
+        <v>3857.89863268166</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>641.886759648</v>
+        <v>3333.93172273563</v>
       </c>
       <c r="C6" t="n">
-        <v>53.42</v>
+        <v>1347.2585</v>
       </c>
       <c r="D6" t="n">
-        <v>75.04000000000001</v>
+        <v>4033.79026832817</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>22726.875870608</v>
+        <v>97949.6127167934</v>
       </c>
       <c r="I6" t="n">
-        <v>724.828676566498</v>
+        <v>8057.39825198081</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>28244.5466836</v>
+        <v>135045.855875422</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>175.1</v>
+        <v>5869.4274</v>
       </c>
       <c r="O6" t="n">
-        <v>14480.2145736576</v>
+        <v>47757.3428438541</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>4183.45585126828</v>
+        <v>35801.2331872585</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>5408.8443</v>
+        <v>32362.8343</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>20608.8261</v>
+        <v>78643.1124359994</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>5780.3</v>
+        <v>40438.81373</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>99.84</v>
+        <v>4223.99747774767</v>
       </c>
       <c r="AE6" t="n">
-        <v>11831.031059648</v>
+        <v>76135.5797527356</v>
       </c>
       <c r="AF6" t="n">
-        <v>1053.1886765665</v>
+        <v>19498.0816297285</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>75.04000000000001</v>
+        <v>4033.79026832817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>931.230154146</v>
+        <v>3339.09202</v>
       </c>
       <c r="C7" t="n">
-        <v>74.48560000000001</v>
+        <v>237.1894</v>
       </c>
       <c r="D7" t="n">
-        <v>480.691176799</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2183.967833</v>
-      </c>
+        <v>3863.92299368999</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>26516.7061570871</v>
+        <v>100962.708841298</v>
       </c>
       <c r="I7" t="n">
-        <v>923.644679258472</v>
+        <v>7987.22804962406</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>34104.2047307416</v>
+        <v>141642.079659611</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>306.0631</v>
+        <v>6743.0122</v>
       </c>
       <c r="O7" t="n">
-        <v>17113.1365675279</v>
+        <v>55791.3846196083</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>6174.85574132877</v>
+        <v>30899.7374617671</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>6949.2665</v>
+        <v>36025.3183210014</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>23685.681399</v>
+        <v>79668.7114526208</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>6975.2</v>
+        <v>46354.0840013894</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>191.9474</v>
+        <v>8483.296510092719</v>
       </c>
       <c r="AE7" t="n">
-        <v>14855.696654146</v>
+        <v>85718.4943423908</v>
       </c>
       <c r="AF7" t="n">
-        <v>1496.14077925847</v>
+        <v>23450.7261597168</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>480.691176799</v>
+        <v>3863.92299368999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1185.472160926</v>
+        <v>3282.9509</v>
       </c>
       <c r="C8" t="n">
-        <v>464.2289</v>
+        <v>44.8806241910231</v>
       </c>
       <c r="D8" t="n">
-        <v>558.51150064</v>
+        <v>21.0113539682428</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>31704.580951607</v>
+        <v>104442.657914466</v>
       </c>
       <c r="I8" t="n">
-        <v>1463.23478537708</v>
+        <v>7259.49603370502</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>41379.0768203802</v>
+        <v>146768.254201884</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>579.864</v>
+        <v>6877.3873</v>
       </c>
       <c r="O8" t="n">
-        <v>19915.5</v>
+        <v>62150.5319298551</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>9196.453150291331</v>
+        <v>25901.5180140324</v>
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>8814.8529</v>
+        <v>39004.5419</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>27656.6856117</v>
+        <v>86545.4126052044</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
-        <v>8643.200000000001</v>
+        <v>50112.471</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>329.7385</v>
+        <v>8054.46678872465</v>
       </c>
       <c r="AE8" t="n">
-        <v>18643.525060926</v>
+        <v>92399.9638</v>
       </c>
       <c r="AF8" t="n">
-        <v>2837.06618537708</v>
+        <v>22236.2307466207</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>558.51150064</v>
+        <v>21.0113539682428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1687.93151648</v>
+        <v>3820.619785</v>
       </c>
       <c r="C9" t="n">
-        <v>547.8339999999999</v>
+        <v>51.2830455185637</v>
       </c>
       <c r="D9" t="n">
-        <v>655.1497879999999</v>
+        <v>15.404300869229</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>39105.7081247433</v>
+        <v>111450.668347637</v>
       </c>
       <c r="I9" t="n">
-        <v>1653.90314742292</v>
+        <v>7752.04400898049</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>54052.8518820932</v>
+        <v>162859.473065428</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>965.6565000000001</v>
+        <v>7821.9878561837</v>
       </c>
       <c r="O9" t="n">
-        <v>24304.2464657321</v>
+        <v>71373.18170266481</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>15291.6948108631</v>
+        <v>27943.226597294</v>
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>11964.83</v>
+        <v>44128.6648</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>35304.8632</v>
+        <v>93844.283915112</v>
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
-        <v>10812.3</v>
+        <v>58437.57</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>271.0368</v>
+        <v>6555.51090154383</v>
       </c>
       <c r="AE9" t="n">
-        <v>24465.06151648</v>
+        <v>106386.854585</v>
       </c>
       <c r="AF9" t="n">
-        <v>3438.43044742292</v>
+        <v>22180.8258122266</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>655.1497879999999</v>
+        <v>15.404300869229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2131.120236596</v>
+        <v>8465.58986496209</v>
       </c>
       <c r="C10" t="n">
-        <v>717.01</v>
+        <v>139.732851984802</v>
       </c>
       <c r="D10" t="n">
-        <v>768.03287929</v>
+        <v>20.0651646805716</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>45254.9102974974</v>
+        <v>116897.965971735</v>
       </c>
       <c r="I10" t="n">
-        <v>1893.4712058485</v>
+        <v>7243.89273625571</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>62975.1483066747</v>
+        <v>171265.563538111</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1337.06</v>
+        <v>7691.436976</v>
       </c>
       <c r="O10" t="n">
-        <v>29688.9926524295</v>
+        <v>91956.0989699154</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>18791.9695694769</v>
+        <v>19254.9978977219</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>14897.94</v>
+        <v>49227.84647</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>39556.3366666667</v>
+        <v>95553.6922246562</v>
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
-        <v>13696.1</v>
+        <v>61347.75</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>1598.61958939629</v>
+        <v>6522.8789111527</v>
       </c>
       <c r="AE10" t="n">
-        <v>30725.160236596</v>
+        <v>119041.186334962</v>
       </c>
       <c r="AF10" t="n">
-        <v>5546.16079524479</v>
+        <v>21597.9414753932</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>768.03287929</v>
+        <v>20.0651646805716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1919.28963808618</v>
+        <v>8966.991414520269</v>
       </c>
       <c r="C11" t="n">
-        <v>747.546338</v>
+        <v>129.581264486508</v>
       </c>
       <c r="D11" t="n">
-        <v>1006.462</v>
+        <v>14.9851001250755</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>49222.7058471039</v>
+        <v>124632.097351271</v>
       </c>
       <c r="I11" t="n">
-        <v>1706.65485829852</v>
+        <v>7608.5708722938</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>66637.1696420815</v>
+        <v>175371.791809787</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1733.808814</v>
+        <v>8496.194</v>
       </c>
       <c r="O11" t="n">
-        <v>33231.2742418623</v>
+        <v>100788.038929473</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>16913.1356510491</v>
+        <v>9928.152165681269</v>
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>15486.184512</v>
+        <v>47702.56788</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>41962.7575438905</v>
+        <v>97932.4102311434</v>
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
-        <v>16115.6</v>
+        <v>64049.01</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>2064.86118541373</v>
+        <v>11257.3259039107</v>
       </c>
       <c r="AE11" t="n">
-        <v>33521.0741500862</v>
+        <v>120718.56929452</v>
       </c>
       <c r="AF11" t="n">
-        <v>6252.87119571225</v>
+        <v>27491.672040691</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>1006.462</v>
+        <v>14.9851001250755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2261.5672945892</v>
+        <v>9304.06954449958</v>
       </c>
       <c r="C12" t="n">
-        <v>1043.6353675805</v>
+        <v>205.432012141247</v>
       </c>
       <c r="D12" t="n">
-        <v>1604.27782605</v>
+        <v>11.4964967091277</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>61074.653001248</v>
+        <v>111398.262377463</v>
       </c>
       <c r="I12" t="n">
-        <v>2201.95668297773</v>
+        <v>7639.61902410093</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>80976.7203020856</v>
+        <v>149567.52402869</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>2428.6760257363</v>
+        <v>9851.821099999999</v>
       </c>
       <c r="O12" t="n">
-        <v>36155.6891682637</v>
+        <v>105580.898144849</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>20759.8526708368</v>
+        <v>-24057.8554132672</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>17680.81</v>
+        <v>48002.10292</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>52672.5909182424</v>
+        <v>88546.7383924515</v>
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
-        <v>20584.5011</v>
+        <v>54847.98</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>1465.81033923956</v>
+        <v>6246.8889824598</v>
       </c>
       <c r="AE12" t="n">
-        <v>40526.8783945892</v>
+        <v>112154.1524645</v>
       </c>
       <c r="AF12" t="n">
-        <v>7140.0784155341</v>
+        <v>23943.761118702</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>1604.27782605</v>
+        <v>11.4964967091277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2284.502040512</v>
+        <v>10354.6426118424</v>
       </c>
       <c r="C13" t="n">
-        <v>1320.72</v>
+        <v>226.596758245558</v>
       </c>
       <c r="D13" t="n">
-        <v>2425.629049992</v>
+        <v>16.7689619932521</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>74461.0965724227</v>
+        <v>122685.668065218</v>
       </c>
       <c r="I13" t="n">
-        <v>4135.38083969277</v>
+        <v>8005.53069701604</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>99761.8629486568</v>
+        <v>184973.399658455</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>3075.524</v>
+        <v>10501.645</v>
       </c>
       <c r="O13" t="n">
-        <v>40363.2514689288</v>
+        <v>112882.58671752</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>27048.3123763298</v>
+        <v>3300.42748939544</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>22823.75</v>
+        <v>56043.7319611707</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>62270.8052059079</v>
+        <v>99220.07873174841</v>
       </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="n">
-        <v>27217.5839</v>
+        <v>74270.47</v>
       </c>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>2391.00746161272</v>
+        <v>5557.73032754071</v>
       </c>
       <c r="AE13" t="n">
-        <v>52325.835940512</v>
+        <v>140668.844573013</v>
       </c>
       <c r="AF13" t="n">
-        <v>10922.6323013055</v>
+        <v>24291.5027828023</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>2425.629049992</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2777.29407677887</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1878.4440156324</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3006.18954807848</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>85003.2406333424</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6228.37871161149</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>114900.416669156</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>4411.210982584</v>
-      </c>
-      <c r="O14" t="n">
-        <v>39051.9918480129</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>29892.1104673694</v>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>25818.1619120047</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="n">
-        <v>68866.0282853542</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="n">
-        <v>31411.0283</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>2104.21689353033</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>60006.4842887836</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14622.2506033582</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>3006.18954807848</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3061.37737818093</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1551.9709</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3857.89863268166</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>89261.65593286919</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5633.75825121954</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>123086.24857504</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>5127.9177</v>
-      </c>
-      <c r="O15" t="n">
-        <v>42559.6657587748</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>29130.0908231862</v>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>29030.3639</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>73536.4115246</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="n">
-        <v>35993.5842</v>
-      </c>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>3463.50701981032</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>68085.32547818089</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>15777.1538710299</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>3857.89863268166</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3333.93172273563</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1347.2585</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4033.79026832817</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>97949.6127167934</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8057.39825198081</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>135045.855875422</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>5869.4274</v>
-      </c>
-      <c r="O16" t="n">
-        <v>47757.3428438541</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>35801.2331872585</v>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>32362.8343</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>78643.1124359994</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="n">
-        <v>40438.81373</v>
-      </c>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
-        <v>4223.99747774767</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>76135.5797527356</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>19498.0816297285</v>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
-        <v>4033.79026832817</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3339.09202</v>
-      </c>
-      <c r="C17" t="n">
-        <v>237.1894</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3863.92299368999</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>100962.708841298</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7987.22804962406</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>141642.079659611</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>6743.0122</v>
-      </c>
-      <c r="O17" t="n">
-        <v>55791.3846196083</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>30899.7374617671</v>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>36025.3183210014</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>79668.7114526208</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>46354.0840013894</v>
-      </c>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="n">
-        <v>8483.296510092719</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>85718.4943423908</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>23450.7261597168</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
-        <v>3863.92299368999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3282.9509</v>
-      </c>
-      <c r="C18" t="n">
-        <v>44.8806241910231</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21.0113539682428</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>104442.657914466</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7259.49603370502</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>146768.254201884</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>6877.3873</v>
-      </c>
-      <c r="O18" t="n">
-        <v>62150.5319298551</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>25901.5180140324</v>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>39004.5419</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="n">
-        <v>86545.4126052044</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="n">
-        <v>50112.471</v>
-      </c>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="n">
-        <v>8054.46678872465</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>92399.9638</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>22236.2307466207</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>21.0113539682428</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3820.619785</v>
-      </c>
-      <c r="C19" t="n">
-        <v>51.2830455185637</v>
-      </c>
-      <c r="D19" t="n">
-        <v>15.404300869229</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>111450.668347637</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7752.04400898049</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>162859.473065428</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>7821.9878561837</v>
-      </c>
-      <c r="O19" t="n">
-        <v>71373.18170266481</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>27943.226597294</v>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>44128.6648</v>
-      </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="n">
-        <v>93844.283915112</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="n">
-        <v>58437.57</v>
-      </c>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
-        <v>6555.51090154383</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>106386.854585</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>22180.8258122266</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
-        <v>15.404300869229</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8465.58986496209</v>
-      </c>
-      <c r="C20" t="n">
-        <v>139.732851984802</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20.0651646805716</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>116897.965971735</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7243.89273625571</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>171265.563538111</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>7691.436976</v>
-      </c>
-      <c r="O20" t="n">
-        <v>91956.0989699154</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>19254.9978977219</v>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
-        <v>49227.84647</v>
-      </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>95553.6922246562</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="n">
-        <v>61347.75</v>
-      </c>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="n">
-        <v>6522.8789111527</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>119041.186334962</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>21597.9414753932</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
-        <v>20.0651646805716</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8966.991414520269</v>
-      </c>
-      <c r="C21" t="n">
-        <v>129.581264486508</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14.9851001250755</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>124632.097351271</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7608.5708722938</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>175371.791809787</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>8496.194</v>
-      </c>
-      <c r="O21" t="n">
-        <v>100788.038929473</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>9928.152165681269</v>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>47702.56788</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="n">
-        <v>97932.4102311434</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="n">
-        <v>64049.01</v>
-      </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>11257.3259039107</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>120718.56929452</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>27491.672040691</v>
-      </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="n">
-        <v>14.9851001250755</v>
+        <v>16.7689619932521</v>
       </c>
     </row>
   </sheetData>
